--- a/Manual Testing Project_Personal Netbanking System_Neha-Nandane.xlsx
+++ b/Manual Testing Project_Personal Netbanking System_Neha-Nandane.xlsx
@@ -2,38 +2,39 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnandane\Documents\Zoom\Edubridge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="14" r:id="rId1"/>
-    <sheet name="Test Scenarios" sheetId="3" r:id="rId2"/>
-    <sheet name="Login Functionality" sheetId="4" r:id="rId3"/>
-    <sheet name="Logout" sheetId="5" r:id="rId4"/>
-    <sheet name="Forgot Passsword" sheetId="6" r:id="rId5"/>
-    <sheet name="Accounts" sheetId="8" r:id="rId6"/>
-    <sheet name="Fund Transfer" sheetId="7" r:id="rId7"/>
-    <sheet name="Cards" sheetId="9" r:id="rId8"/>
-    <sheet name="Loans" sheetId="10" r:id="rId9"/>
-    <sheet name="Offers" sheetId="11" r:id="rId10"/>
-    <sheet name="Investment" sheetId="13" r:id="rId11"/>
+    <sheet name="Chart1" sheetId="15" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="14" r:id="rId2"/>
+    <sheet name="Test Scenarios" sheetId="3" r:id="rId3"/>
+    <sheet name="Login Functionality" sheetId="4" r:id="rId4"/>
+    <sheet name="Logout" sheetId="5" r:id="rId5"/>
+    <sheet name="Forgot Passsword" sheetId="6" r:id="rId6"/>
+    <sheet name="Accounts" sheetId="8" r:id="rId7"/>
+    <sheet name="Fund Transfer" sheetId="7" r:id="rId8"/>
+    <sheet name="Cards" sheetId="9" r:id="rId9"/>
+    <sheet name="Loans" sheetId="10" r:id="rId10"/>
+    <sheet name="Offers" sheetId="11" r:id="rId11"/>
+    <sheet name="Investment" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Accounts!$A$1:$K$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Cards!$A$1:$K$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Forgot Passsword'!$A$1:$K$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Fund Transfer'!$A$1:$K$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Investment!$A$1:$K$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Loans!$A$1:$K$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Login Functionality'!$A$1:$K$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Logout!$A$1:$K$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Offers!$A$1:$K$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Accounts!$A$1:$K$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Cards!$A$1:$K$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Forgot Passsword'!$A$1:$K$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Fund Transfer'!$A$1:$K$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Investment!$A$1:$K$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Loans!$A$1:$K$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Login Functionality'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Logout!$A$1:$K$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Offers!$A$1:$K$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2292,7 +2293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2402,8 +2403,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2415,9 +2414,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2435,14 +2431,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3746,6 +3746,306 @@
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$14:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -3775,7 +4075,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-971B-483A-826D-F9503853B3F7}"/>
+                <c16:uniqueId val="{00000014-DC40-431E-9CAB-DAD8BE6AC15C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3793,6 +4093,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3808,6 +4113,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3823,6 +4133,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3838,6 +4153,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3853,6 +4173,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3870,6 +4195,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -3887,6 +4217,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000022-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3904,51 +4239,68 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000024-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$A$14:$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(TS_001) 
-Login Functionality</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>(TS_002)
-Logout</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>(TS_003)
-Forgot Passsword</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>(TS_004)
-Accounts</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(TS_005)
-Fund Transfer</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>(TS_006)
-Cards</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>(TS_007)
-Loans</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>(TS_008)
-Offers</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>(TS_009)
-Investment</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Dashboard!$C$14:$C$22</c:f>
@@ -3987,13 +4339,610 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-971B-483A-826D-F9503853B3F7}"/>
+              <c16:uniqueId val="{00000025-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blocked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$D$14:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000038-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not Tested</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003A-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003C-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003E-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000040-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000042-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000044-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000046-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000048-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004A-DC40-431E-9CAB-DAD8BE6AC15C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$E$14:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004B-DC40-431E-9CAB-DAD8BE6AC15C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4001,1054 +4950,7 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredPieSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Dashboard!$B$13</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Pass</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:dPt>
-                  <c:idx val="0"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="1"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="2"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="3"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="4"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="5"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="6"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="7"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="8"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Dashboard!$A$14:$A$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>(TS_001) 
-Login Functionality</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>(TS_002)
-Logout</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>(TS_003)
-Forgot Passsword</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>(TS_004)
-Accounts</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>(TS_005)
-Fund Transfer</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>(TS_006)
-Cards</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>(TS_007)
-Loans</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>(TS_008)
-Offers</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>(TS_009)
-Investment</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Dashboard!$B$14:$B$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>3</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-971B-483A-826D-F9503853B3F7}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredPieSeries>
-            <c15:filteredPieSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Dashboard!$D$13</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Blocked</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:dPt>
-                  <c:idx val="0"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="1"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="2"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="3"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="4"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="5"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="6"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="7"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="8"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Dashboard!$A$14:$A$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>(TS_001) 
-Login Functionality</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>(TS_002)
-Logout</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>(TS_003)
-Forgot Passsword</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>(TS_004)
-Accounts</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>(TS_005)
-Fund Transfer</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>(TS_006)
-Cards</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>(TS_007)
-Loans</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>(TS_008)
-Offers</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>(TS_009)
-Investment</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Dashboard!$D$14:$D$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-971B-483A-826D-F9503853B3F7}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredPieSeries>
-            <c15:filteredPieSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Dashboard!$E$13</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Not Tested</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:dPt>
-                  <c:idx val="0"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="1"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="2"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="3"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="4"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="5"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="6"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="7"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="8"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Dashboard!$A$14:$A$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>(TS_001) 
-Login Functionality</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>(TS_002)
-Logout</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>(TS_003)
-Forgot Passsword</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>(TS_004)
-Accounts</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>(TS_005)
-Fund Transfer</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>(TS_006)
-Cards</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>(TS_007)
-Loans</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>(TS_008)
-Offers</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>(TS_009)
-Investment</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Dashboard!$E$14:$E$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-971B-483A-826D-F9503853B3F7}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredPieSeries>
-            <c15:filteredPieSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Dashboard!$F$13</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Total</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:dPt>
-                  <c:idx val="0"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="1"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="2"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="3"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="4"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="5"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="6"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="7"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:dPt>
-                  <c:idx val="8"/>
-                  <c:bubble3D val="0"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="19050">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:dPt>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Dashboard!$A$14:$A$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>(TS_001) 
-Login Functionality</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>(TS_002)
-Logout</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>(TS_003)
-Forgot Passsword</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>(TS_004)
-Accounts</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>(TS_005)
-Fund Transfer</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>(TS_006)
-Cards</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>(TS_007)
-Loans</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>(TS_008)
-Offers</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>(TS_009)
-Investment</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Dashboard!$F$14:$F$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>3</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-971B-483A-826D-F9503853B3F7}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredPieSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
@@ -5059,17 +4961,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11777789634959715"/>
-          <c:y val="0.81217937195669965"/>
-          <c:w val="0.76444420730080564"/>
-          <c:h val="0.16737769788997842"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5082,7 +4975,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5128,6 +5021,411 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Test Report</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-38AE-4910-81B4-1B964A2749A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-38AE-4910-81B4-1B964A2749A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-38AE-4910-81B4-1B964A2749A8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2463626822389462E-2"/>
+                  <c:y val="6.6382752076139501E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>; </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-38AE-4910-81B4-1B964A2749A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.5475201575797976E-2"/>
+                  <c:y val="0.16236168795323058"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>; </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-38AE-4910-81B4-1B964A2749A8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$13:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Pass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fail</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Blocked</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Not Tested</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-38AE-4910-81B4-1B964A2749A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -5137,6 +5435,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5695,24 +6033,581 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="68" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9300882" cy="6079191"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>139699</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="6" name="Chart 5" descr="NA&#10;" title="Test Report"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5733,7 +6628,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 15">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5747,16 +6642,16 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="00B050"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="FF0000"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="000000"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="00B0F0"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="4472C4"/>
@@ -5993,10 +6888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L23"/>
+  <dimension ref="A3:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6035,19 +6930,19 @@
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="55">
         <v>45253</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="56"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="57"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
@@ -6095,230 +6990,231 @@
     </row>
     <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="48" t="s">
         <v>449</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="48" t="s">
         <v>450</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="49" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="42">
         <v>14</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="42">
         <v>1</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="42">
         <v>1</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="42">
         <v>0</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="51">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="42">
         <v>7</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="42">
         <v>1</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="42">
         <v>0</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="42">
         <v>0</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="51">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="42">
         <v>8</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="42">
         <v>1</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="42">
         <v>0</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="42">
         <v>0</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="51">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="42">
         <v>6</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="42">
         <v>1</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="42">
         <v>1</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="42">
         <v>0</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="51">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="42">
         <v>15</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="42">
         <v>2</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="42">
         <v>1</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="42">
         <v>1</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="51">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="42">
         <v>11</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="42">
         <v>0</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="42">
         <v>0</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="42">
         <v>0</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="51">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="42">
         <v>4</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="42">
         <v>0</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="42">
         <v>0</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="42">
         <v>0</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="51">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="42">
         <v>8</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="42">
         <v>1</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="42">
         <v>0</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="42">
         <v>0</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="51">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="50" t="s">
         <v>433</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="42">
         <v>3</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="42">
         <v>0</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="42">
         <v>0</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="42">
         <v>0</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="52" t="s">
         <v>451</v>
       </c>
-      <c r="B23" s="56">
+      <c r="B23" s="53">
         <f>SUM(B14:B22)</f>
         <v>76</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="53">
         <f>SUM(C14:C22)</f>
         <v>7</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="53">
         <f>SUM(D14:D22)</f>
         <v>3</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23" s="53">
         <f>SUM(E14:E22)</f>
         <v>1</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="54">
         <f>SUM(F14:F22)</f>
         <v>87</v>
       </c>
     </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B6:C6"/>
@@ -6397,20 +7293,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:11" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
@@ -6717,72 +7613,72 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="24" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="18" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6903,20 +7799,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:11" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" ht="93" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
@@ -7083,9 +7979,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A7:E18"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7097,194 +7995,187 @@
     <col min="6" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C7" s="39"/>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-    </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="41" t="s">
+    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>10</v>
       </c>
+      <c r="E1" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="41" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
-        <v>37</v>
+      <c r="A10" s="40" t="s">
+        <v>433</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>13</v>
+      <c r="C10" s="42" t="s">
+        <v>438</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="35">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
-        <v>445</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="35">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="42" t="s">
-        <v>433</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="43" t="s">
+      <c r="E10" s="41" t="s">
         <v>439</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" location="'Login Functionality'!A1" display="'Login Functionality'!A1"/>
-    <hyperlink ref="A11" location="Logout!A1" display="Logout!A1"/>
-    <hyperlink ref="A12" location="'Forgot Passsword'!A1" display="'Forgot Passsword'!A1"/>
-    <hyperlink ref="A13" location="Accounts!A1" display="Accounts!A1"/>
-    <hyperlink ref="A14" location="'Fund Transfer'!A1" display="'Fund Transfer'!A1"/>
-    <hyperlink ref="A15" location="Cards!A1" display="Cards!A1"/>
-    <hyperlink ref="A16" location="Loans!A1" display="Loans!A1"/>
-    <hyperlink ref="A17" location="Offers!A1" display="Offers!A1"/>
-    <hyperlink ref="A18" location="Investment!A1" display="Investment!A1"/>
+    <hyperlink ref="A2" location="'Login Functionality'!A1" display="'Login Functionality'!A1"/>
+    <hyperlink ref="A3" location="Logout!A1" display="Logout!A1"/>
+    <hyperlink ref="A4" location="'Forgot Passsword'!A1" display="'Forgot Passsword'!A1"/>
+    <hyperlink ref="A5" location="Accounts!A1" display="Accounts!A1"/>
+    <hyperlink ref="A6" location="'Fund Transfer'!A1" display="'Fund Transfer'!A1"/>
+    <hyperlink ref="A7" location="Cards!A1" display="Cards!A1"/>
+    <hyperlink ref="A8" location="Loans!A1" display="Loans!A1"/>
+    <hyperlink ref="A9" location="Offers!A1" display="Offers!A1"/>
+    <hyperlink ref="A10" location="Investment!A1" display="Investment!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7347,20 +8238,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:11" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
         <v>446</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -7993,20 +8884,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:11" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
@@ -8365,20 +9256,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:11" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -8780,20 +9671,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:11" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45" t="s">
         <v>446</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="217" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
@@ -9181,7 +10072,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F19" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -9232,20 +10123,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:11" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
@@ -10012,16 +10903,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="90" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="89" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="88" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10093,20 +10984,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:11" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
@@ -10484,156 +11375,156 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="91" priority="45" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="87" priority="45" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="46" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="86" priority="46" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="47" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="85" priority="47" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="48" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="84" priority="48" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="87" priority="37" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="83" priority="37" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="38" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="82" priority="38" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="39" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="81" priority="39" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="40" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="80" priority="40" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="83" priority="33" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="79" priority="33" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="34" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="78" priority="34" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="35" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="77" priority="35" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="36" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="76" priority="36" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="79" priority="29" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="75" priority="29" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="30" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="74" priority="30" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="31" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="73" priority="31" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="32" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="72" priority="32" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="75" priority="25" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="71" priority="25" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="26" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="70" priority="26" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="27" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="69" priority="27" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="28" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="68" priority="28" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="71" priority="21" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="67" priority="21" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="22" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="66" priority="22" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="23" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="65" priority="23" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="24" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="64" priority="24" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="67" priority="17" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="63" priority="17" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="18" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="62" priority="18" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="61" priority="19" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="20" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="60" priority="20" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="14" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="58" priority="14" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="16" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="56" priority="16" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="55" priority="9" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="10" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="54" priority="10" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="12" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="52" priority="12" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="50" priority="6" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="48" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10706,20 +11597,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:11" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
@@ -10859,58 +11750,58 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="J3">
-    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="43" priority="13" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="14" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="42" priority="14" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="15" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="16" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="40" priority="16" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="10" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="38" priority="10" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="12" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="34" priority="6" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
